--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CompE\CompE3110Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB864B5E-D113-4F4C-ACF6-DA629EC8E627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7393DC6-A7A1-4A55-B4B5-BE3DE88B1EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{D831316F-250A-4464-806A-46ED209AD1A1}"/>
   </bookViews>
@@ -121,7 +121,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -424,6 +434,143 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3A1F-4B17-AC2D-9348FD15A8E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A00F-4A8F-80B6-2A9CF013F205}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1175,15 +1322,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:colOff>982980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:colOff>979170</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1510,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB4F989-AFCB-46B1-82B6-0231EC5B77B7}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
